--- a/data.xlsx
+++ b/data.xlsx
@@ -6,36 +6,24 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Apple MacBook Air Laptop: Apple M1 chip, 13.3-inch/…</t>
+    <t>iQOO Z9s 5G (Onyx Green, 8GB RAM, 128GB Storage)…</t>
   </si>
   <si>
     <t>OnePlus Nord CE4 Lite 5G (Super Silver, 8GB RAM, 12…</t>
   </si>
   <si>
-    <t>iQOO Z9x 5G (Tornado Green, 6GB RAM, 128GB S…</t>
+    <t>iQOO Z9S Pro 5G (Luxe Marble, 8Gb Ram, 256Gb S…</t>
   </si>
   <si>
-    <t>iQOO Z9 Lite 5G (Mocha Brown, 6GB RAM, 128GB S…</t>
-  </si>
-  <si>
-    <t>iQOO Z9s 5G (Onyx Green, 12GB RAM, 256GB Storag…</t>
-  </si>
-  <si>
-    <t>Redmi Note 13 5G (Arctic White, 6GB RAM, 128GB S…</t>
-  </si>
-  <si>
-    <t>OnePlus Nord 4 5G (Oasis Green, 8GB RAM, 256GB S…</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 (128 GB) - White</t>
+    <t>iQOO Z9x 5G (Tornado Green, 6GB RAM, 128GB S…</t>
   </si>
 </sst>
 </file>
@@ -80,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,26 +94,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
